--- a/data/excel/ApprovalWorkflow1.xlsx
+++ b/data/excel/ApprovalWorkflow1.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2775CCDF-DA23-440E-A0D0-FE0247CD7EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Flight" sheetId="3" r:id="rId2"/>
     <sheet name="Hotel" sheetId="4" r:id="rId3"/>
     <sheet name="Car" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="101">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -313,12 +315,24 @@
   </si>
   <si>
     <t>Hotel</t>
+  </si>
+  <si>
+    <t>//test.quadlabs.net/backoffice/</t>
+  </si>
+  <si>
+    <t>Admin@456</t>
+  </si>
+  <si>
+    <t>ankur_at</t>
+  </si>
+  <si>
+    <t>amazon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -421,13 +435,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -708,7 +720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -784,7 +796,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -906,13 +918,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1008,59 +1020,59 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 X2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 X2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Airline Criteria,Origin,Destination,Cost Range,Booking Date,Trip Date,Market Type"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -1160,7 +1172,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1190,91 +1202,91 @@
       <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -1360,13 +1372,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1463,19 +1475,19 @@
       <c r="AQ2" s="4">
         <v>1500</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -1538,62 +1550,62 @@
     </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{00000000-0002-0000-0100-00000C000000}">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{00000000-0002-0000-0100-00000E000000}">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,7 +1705,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1723,91 +1735,91 @@
       <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -1893,13 +1905,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1998,19 +2010,19 @@
       <c r="AQ2" s="4">
         <v>1500</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -2073,66 +2085,66 @@
     </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2153,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -2221,7 +2233,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2251,91 +2263,91 @@
       <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -2410,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2421,13 +2433,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2526,19 +2538,19 @@
       <c r="AQ2" s="4">
         <v>1500</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -2601,57 +2613,592 @@
     </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2 AV2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2 AV2" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-00000A000000}">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{00000000-0002-0000-0300-00000D000000}">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{00000000-0002-0000-0300-00000E000000}">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1281525-8455-4E14-A1B7-70E32D0DDFDD}">
+  <dimension ref="A1:BO2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" s="4">
+        <v>3</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{F8A77B8A-3011-4BE6-9A90-6CC7AB78428B}">
+      <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{BF1135D3-C7D8-49B2-BF3F-7A9D10078BE2}">
+      <formula1>"Zone,Region,Country,City"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{046276F9-8113-401A-977D-BDC65E0B8396}">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{5F0A0A0A-D5F8-485C-9C21-47FC7BC6022E}">
+      <formula1>"at"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{261AB39C-AAB1-4536-BD35-6B0434BD9542}">
+      <formula1>"saurav_at,ankur_at"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{5AAC8899-B757-47E7-9792-C4160A1DAAEE}">
+      <formula1>"Laxmi@123,Admin@456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{2EA3FEB0-2E74-40C7-AFD1-042B74EC919E}">
+      <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{3BCD8D93-4CD8-4394-A871-926E2DB6B044}">
+      <formula1>"Business Trip,Family Trip,Guest User"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{DFE57D1F-43DA-4485-9A7D-68D72478D382}">
+      <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{B391D097-9D1D-4A75-B511-11847EC04DF3}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{ADFABAB0-3D1E-445E-B6E5-AEA5E73CFEF4}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{5421B2D1-872C-443A-9615-F3D8FDD17439}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{5A10638B-0628-4294-9296-9DA58E1842C6}">
+      <formula1>"Parallel,Sequential"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{67D4F42B-4EDB-4BEC-A85C-6509AFFEBCCD}">
+      <formula1>"Acceptance,Denied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{0A3341FD-032E-43D8-A806-7BF482ED840D}">
+      <formula1>"InPolicy,OutPolicy"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{D2D3A1FA-456E-4306-89CC-15B7D31174FB}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{C5C4E1BF-FDF9-4E48-8C42-E60CFC2034F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/excel/ApprovalWorkflow1.xlsx
+++ b/data/excel/ApprovalWorkflow1.xlsx
@@ -1,18 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2775CCDF-DA23-440E-A0D0-FE0247CD7EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Flight" sheetId="3" r:id="rId2"/>
     <sheet name="Hotel" sheetId="4" r:id="rId3"/>
     <sheet name="Car" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="97">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -315,24 +313,12 @@
   </si>
   <si>
     <t>Hotel</t>
-  </si>
-  <si>
-    <t>//test.quadlabs.net/backoffice/</t>
-  </si>
-  <si>
-    <t>Admin@456</t>
-  </si>
-  <si>
-    <t>ankur_at</t>
-  </si>
-  <si>
-    <t>amazon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -435,11 +421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -796,7 +784,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -918,13 +906,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1020,59 +1008,59 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 X2" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 X2">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
       <formula1>"Airline Criteria,Origin,Destination,Cost Range,Booking Date,Trip Date,Market Type"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -1172,7 +1160,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1202,91 +1190,91 @@
       <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -1372,13 +1360,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1475,19 +1463,19 @@
       <c r="AQ2" s="4">
         <v>1500</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -1550,62 +1538,62 @@
     </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0100-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{00000000-0002-0000-0100-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{00000000-0002-0000-0100-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1705,7 +1693,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1735,91 +1723,91 @@
       <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -1905,13 +1893,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2010,19 +1998,19 @@
       <c r="AQ2" s="4">
         <v>1500</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -2085,66 +2073,66 @@
     </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2141,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -2233,7 +2221,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2263,91 +2251,91 @@
       <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -2422,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2433,13 +2421,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2538,19 +2526,19 @@
       <c r="AQ2" s="4">
         <v>1500</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -2613,592 +2601,57 @@
     </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2">
       <formula1>"InPolicy,OutPolicy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
       <formula1>"Acceptance,Denied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2">
       <formula1>"Parallel,Sequential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2 AV2" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2 AV2">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{00000000-0002-0000-0300-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2">
       <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0300-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"Business Trip,Family Trip,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0300-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0300-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0300-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{00000000-0002-0000-0300-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{00000000-0002-0000-0300-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1281525-8455-4E14-A1B7-70E32D0DDFDD}">
-  <dimension ref="A1:BO2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="4">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="4">
-        <v>1</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>1500</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA2" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="4">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN2" s="4">
-        <v>3</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2 AI2" xr:uid="{F8A77B8A-3011-4BE6-9A90-6CC7AB78428B}">
-      <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AG2" xr:uid="{BF1135D3-C7D8-49B2-BF3F-7A9D10078BE2}">
-      <formula1>"Zone,Region,Country,City"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{046276F9-8113-401A-977D-BDC65E0B8396}">
-      <formula1>"Positive,Negative"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{5F0A0A0A-D5F8-485C-9C21-47FC7BC6022E}">
-      <formula1>"at"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{261AB39C-AAB1-4536-BD35-6B0434BD9542}">
-      <formula1>"saurav_at,ankur_at"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{5AAC8899-B757-47E7-9792-C4160A1DAAEE}">
-      <formula1>"Laxmi@123,Admin@456"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{2EA3FEB0-2E74-40C7-AFD1-042B74EC919E}">
-      <formula1>"Business Trip,Family Trip,Expense,Guest User"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{3BCD8D93-4CD8-4394-A871-926E2DB6B044}">
-      <formula1>"Business Trip,Family Trip,Guest User"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AX2" xr:uid="{DFE57D1F-43DA-4485-9A7D-68D72478D382}">
-      <formula1>"Flight,Hotel,Insurance,Sightseeing,Transfer,Car,Bus,Meet And Greet Service"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AZ2" xr:uid="{B391D097-9D1D-4A75-B511-11847EC04DF3}">
-      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{ADFABAB0-3D1E-445E-B6E5-AEA5E73CFEF4}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{5421B2D1-872C-443A-9615-F3D8FDD17439}">
-      <formula1>"1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2" xr:uid="{5A10638B-0628-4294-9296-9DA58E1842C6}">
-      <formula1>"Parallel,Sequential"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{67D4F42B-4EDB-4BEC-A85C-6509AFFEBCCD}">
-      <formula1>"Acceptance,Denied"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{0A3341FD-032E-43D8-A806-7BF482ED840D}">
-      <formula1>"InPolicy,OutPolicy"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{D2D3A1FA-456E-4306-89CC-15B7D31174FB}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{C5C4E1BF-FDF9-4E48-8C42-E60CFC2034F0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>